--- a/tests/indicators/a-d/Dema/Dema.Calc.xlsx
+++ b/tests/indicators/a-d/Dema/Dema.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D659A3B-C835-49DC-A8EF-5905BBECF7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383450D5-28A7-4334-A669-07FD5FBCF33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMA" sheetId="1" r:id="rId1"/>
@@ -647,6 +647,17 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -705,17 +716,6 @@
       </font>
       <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -820,9 +820,9 @@
     <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="8" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{C23C78F6-4EA9-43B4-8A9F-AB3990C28285}" name="ema" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{AF331C08-A0B2-451B-9B57-2F314A757038}" name="ema2" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="13" xr3:uid="{2E5EED1A-0634-43E4-98DA-A1F5E56700D0}" name="dema" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="10" xr3:uid="{C23C78F6-4EA9-43B4-8A9F-AB3990C28285}" name="ema" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{AF331C08-A0B2-451B-9B57-2F314A757038}" name="ema2" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="13" xr3:uid="{2E5EED1A-0634-43E4-98DA-A1F5E56700D0}" name="dema" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>2*testdata[[#This Row],[ema]]-testdata[[#This Row],[ema2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -831,9 +831,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBE57996-5B83-42FC-AAD5-5349F5AFDDB2}" name="Table5" displayName="Table5" ref="H1:H3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBE57996-5B83-42FC-AAD5-5349F5AFDDB2}" name="Table5" displayName="Table5" ref="H1:H3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" dataCellStyle="Comma">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{27FF72DA-4D74-4B15-BA48-7E1E6B7BADDE}" name="K" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{27FF72DA-4D74-4B15-BA48-7E1E6B7BADDE}" name="K" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>2/(20+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1146,7 +1146,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="11" bestFit="1" customWidth="1"/>
